--- a/outMirg.xlsx
+++ b/outMirg.xlsx
@@ -22,7 +22,7 @@
     <t>Cant. Mirg</t>
   </si>
   <si>
-    <t>14/5/21</t>
+    <t>28/5/21</t>
   </si>
   <si>
     <t>1822 Raices Valores Negociables</t>
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9824</v>
+        <v>9839</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -446,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>11867</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>40552</v>
+        <v>40519</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>8676</v>
+        <v>8686</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -478,7 +478,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>80369</v>
+        <v>76704</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -486,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>22697</v>
+        <v>22690</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,7 +494,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>14266</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -502,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>8101</v>
+        <v>7109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -510,7 +510,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>7973</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -518,7 +518,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>10480</v>
+        <v>10454</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -526,7 +526,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>9861</v>
+        <v>9855</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -534,7 +534,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>14149</v>
+        <v>14127</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -542,7 +542,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>2708</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -550,7 +550,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>5087</v>
+        <v>-2719</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -558,7 +558,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>5738</v>
+        <v>-3227</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -566,7 +566,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>2774</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -574,7 +574,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -582,7 +582,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>4549</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -590,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>

--- a/outMirg.xlsx
+++ b/outMirg.xlsx
@@ -22,7 +22,7 @@
     <t>Cant. Mirg</t>
   </si>
   <si>
-    <t>28/5/21</t>
+    <t>4/6</t>
   </si>
   <si>
     <t>1822 Raices Valores Negociables</t>
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9839</v>
+        <v>9814</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -446,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>11870</v>
+        <v>11867</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>40519</v>
+        <v>40537</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>8686</v>
+        <v>8660</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -470,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>2846</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -478,7 +478,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>76704</v>
+        <v>76579</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -486,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>22690</v>
+        <v>22691</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -494,7 +494,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>7262</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -502,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>7109</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -510,7 +510,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>7990</v>
+        <v>7991</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -518,7 +518,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>10454</v>
+        <v>10475</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -526,7 +526,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>9855</v>
+        <v>9857</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -534,7 +534,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>14127</v>
+        <v>14144</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,7 +550,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>-2719</v>
+        <v>-2737</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -558,7 +558,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>-3227</v>
+        <v>-3332</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -566,7 +566,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>2780</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -574,7 +574,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1580</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -582,7 +582,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>4552</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="22" spans="1:3">
